--- a/dados_gerais/dados_gerais_tabelas.xlsx
+++ b/dados_gerais/dados_gerais_tabelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="componentes_inst" sheetId="1" r:id="rId1"/>
@@ -1028,7 +1028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1280,7 +1282,7 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="9"/>
@@ -2065,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/dados_gerais/dados_gerais_tabelas.xlsx
+++ b/dados_gerais/dados_gerais_tabelas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Documents\GitHub\anuario2020\dados_gerais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="componentes_inst" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,16 @@
     <sheet name="edu" sheetId="9" r:id="rId9"/>
     <sheet name="extensao" sheetId="10" r:id="rId10"/>
     <sheet name="ru" sheetId="11" r:id="rId11"/>
-    <sheet name="indicadores" sheetId="12" r:id="rId12"/>
-    <sheet name="Plan13" sheetId="13" r:id="rId13"/>
+    <sheet name="indicadores_gerais" sheetId="12" r:id="rId12"/>
+    <sheet name="indicadores_unidade" sheetId="13" r:id="rId13"/>
+    <sheet name="evolucao_pop" sheetId="14" r:id="rId14"/>
+    <sheet name="evolucao_grad_pos" sheetId="15" r:id="rId15"/>
+    <sheet name="evolucao_form" sheetId="16" r:id="rId16"/>
+    <sheet name="campus_darcy" sheetId="17" r:id="rId17"/>
+    <sheet name="fal" sheetId="18" r:id="rId18"/>
+    <sheet name="hub" sheetId="19" r:id="rId19"/>
+    <sheet name="hvet1" sheetId="20" r:id="rId20"/>
+    <sheet name="hvet2" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="229">
   <si>
     <t>Componentes Institucionais</t>
   </si>
@@ -387,13 +395,414 @@
   </si>
   <si>
     <t>Títulos outorgados</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Alunos Registrados</t>
+  </si>
+  <si>
+    <t>Cursos Ministrados</t>
+  </si>
+  <si>
+    <t>Títulos Outorgados</t>
+  </si>
+  <si>
+    <t>(dados do 2º semestre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pós-Graduação </t>
+  </si>
+  <si>
+    <t>Grad.</t>
+  </si>
+  <si>
+    <t>Mestr.</t>
+  </si>
+  <si>
+    <t>Dout.</t>
+  </si>
+  <si>
+    <t>Mest./Dout.</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>CEAM</t>
+  </si>
+  <si>
+    <t>CET</t>
+  </si>
+  <si>
+    <t>FAC</t>
+  </si>
+  <si>
+    <t>FACE</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>FAV</t>
+  </si>
+  <si>
+    <t>FCE</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>FEF</t>
+  </si>
+  <si>
+    <t>FGA</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FUP</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>ICS</t>
+  </si>
+  <si>
+    <t>IdA</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>IPOL</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IREL</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Discentes</t>
+  </si>
+  <si>
+    <t>Técnico-Administrativos</t>
+  </si>
+  <si>
+    <r>
+      <t>Docentes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alunos de Graduação</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alunos de Pós-Graduação</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Pós-Graduação</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Total da Pós-Graduação</t>
+  </si>
+  <si>
+    <t>Total 1966 – 1977</t>
+  </si>
+  <si>
+    <t>Total 1978 – 1987</t>
+  </si>
+  <si>
+    <t>Total 1988 – 1997</t>
+  </si>
+  <si>
+    <t>Total 1998 – 2007</t>
+  </si>
+  <si>
+    <t>Total 2008 – 2017</t>
+  </si>
+  <si>
+    <t>TOTAL GERAL</t>
+  </si>
+  <si>
+    <r>
+      <t>Especialização</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Formados com Especialização</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Denominação</t>
+  </si>
+  <si>
+    <t>m²</t>
+  </si>
+  <si>
+    <t>Área Total</t>
+  </si>
+  <si>
+    <t>Área Construída Completa</t>
+  </si>
+  <si>
+    <t>Área Construída Descoberta</t>
+  </si>
+  <si>
+    <t>Área Total Construída</t>
+  </si>
+  <si>
+    <t>Área Não Construída</t>
+  </si>
+  <si>
+    <t>Urbanizada</t>
+  </si>
+  <si>
+    <t>Não Urbanizada</t>
+  </si>
+  <si>
+    <t>Área de Ocupação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominação </t>
+  </si>
+  <si>
+    <t>Área Construída Coberta</t>
+  </si>
+  <si>
+    <t>Não Urbanizada Cultivada</t>
+  </si>
+  <si>
+    <t>Não Urbanizada não Cultiva</t>
+  </si>
+  <si>
+    <t>Com Preservação Natural</t>
+  </si>
+  <si>
+    <t>Número de Edificações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área de Laboratório </t>
+  </si>
+  <si>
+    <t>Área Construída</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Procedimento</t>
+  </si>
+  <si>
+    <t>Consultas</t>
+  </si>
+  <si>
+    <t>Retornos</t>
+  </si>
+  <si>
+    <t>Cirurgias</t>
+  </si>
+  <si>
+    <t>Internações</t>
+  </si>
+  <si>
+    <t>Ultrassom</t>
+  </si>
+  <si>
+    <t>Emergências</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>CCF</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>COft</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>RCM</t>
+  </si>
+  <si>
+    <t>RCF</t>
+  </si>
+  <si>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>ROft</t>
+  </si>
+  <si>
+    <t>RCS</t>
+  </si>
+  <si>
+    <t>Setor de Pequenos Animais</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setembro</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t>Dezembro</t>
+  </si>
+  <si>
+    <t>Média Mensal</t>
+  </si>
+  <si>
+    <t>Exames</t>
+  </si>
+  <si>
+    <t>Equino</t>
+  </si>
+  <si>
+    <t>Ruminante</t>
+  </si>
+  <si>
+    <t>Suíno</t>
+  </si>
+  <si>
+    <t>Setor de Grandes Animais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +834,61 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,15 +910,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,8 +936,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -503,6 +962,107 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,9 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1029,1027 +1587,1027 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="48.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="9">
+      <c r="A1" s="17"/>
+      <c r="B1" s="8">
         <v>2009</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>2010</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>2011</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>2012</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>2013</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>2014</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>2015</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>2016</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>2017</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>2018</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>2019</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>32</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="11">
         <v>27</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="11">
         <v>46</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="11">
         <v>59</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="11">
         <v>30</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="11">
         <v>24</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="11">
         <v>26</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="11">
         <v>26</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>64738</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>44592</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <v>25237</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="12">
         <v>36341</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="12">
         <v>24365</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="12">
         <v>89803</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="12">
         <v>22601</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="12">
         <v>22601</v>
       </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="14"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="12">
         <v>59332</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>1482513</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>1517512</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="12">
         <v>1552371</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="12">
         <v>1502024</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="12">
         <v>1527956</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="12">
         <v>1535650</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="12">
         <v>1542738</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="12">
         <v>1557114</v>
       </c>
-      <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>2500</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>4000</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="12">
         <v>4500</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="12">
         <v>3000</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="12">
         <v>3200</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="12">
         <v>2000</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="12">
         <v>2000</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="12">
         <v>2000</v>
       </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="12">
         <v>1736</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>2074</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>2485</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="12">
         <v>2364</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="12">
         <v>2234</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="12">
         <v>2404</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="12">
         <v>2492</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="12">
         <v>2557</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="12">
         <v>2573</v>
       </c>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="12">
         <v>2205</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>2448</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <v>2731</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="12">
         <v>2637</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="12">
         <v>2623</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="12">
         <v>2863</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="12">
         <v>3159</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="12">
         <v>3198</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="12">
         <v>3171</v>
       </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="14">
         <v>3941</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="14">
         <v>4522</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="14">
         <v>5216</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="14">
         <v>5001</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="14">
         <v>4857</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="14">
         <v>5267</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="14">
         <v>5651</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="14">
         <v>5755</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="14">
         <v>5744</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="16"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>902</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <v>942</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="11">
         <v>879</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="11">
         <v>854</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="11">
         <v>879</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="11">
         <v>837</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="11">
         <v>885</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="11">
         <v>905</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="11">
         <v>932</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="16"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="12">
         <v>1092</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="12">
         <v>1149</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="12">
         <v>1079</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="11">
         <v>1113</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="11">
         <v>1155</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="12">
         <v>1211</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="12">
         <v>1305</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="12">
         <v>1334</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="12">
         <v>1379</v>
       </c>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="14">
         <v>1994</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="14">
         <v>2091</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="14">
         <v>1958</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="14">
         <v>1967</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="14">
         <v>2034</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="14">
         <v>2048</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="14">
         <v>2190</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="14">
         <v>2239</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="14">
         <v>2311</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="16"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="15">
         <v>334</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="15">
         <v>384</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="15">
         <v>348</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="15">
         <v>495</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="15">
         <v>433</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="15">
         <v>236</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="15">
         <v>224</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="15">
         <v>272</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="15">
         <v>337</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>311</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="11">
         <v>352</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="11">
         <v>299</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="11">
         <v>419</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="11">
         <v>364</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="11">
         <v>172</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="11">
         <v>176</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="11">
         <v>225</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="11">
         <v>264</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="19"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <v>23</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="11">
         <v>32</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="11">
         <v>49</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="11">
         <v>76</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="11">
         <v>69</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="11">
         <v>64</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="11">
         <v>48</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="11">
         <v>47</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="11">
         <v>73</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="19"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2065,12 +2623,1964 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="36">
+        <v>37982</v>
+      </c>
+      <c r="C3" s="36">
+        <v>8153</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2749</v>
+      </c>
+      <c r="E3" s="36">
+        <v>3024</v>
+      </c>
+      <c r="F3" s="36">
+        <v>51908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="36">
+        <v>37724</v>
+      </c>
+      <c r="C4" s="36">
+        <v>7599</v>
+      </c>
+      <c r="D4" s="36">
+        <v>2744</v>
+      </c>
+      <c r="E4" s="36">
+        <v>3159</v>
+      </c>
+      <c r="F4" s="36">
+        <v>51226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="36">
+        <v>38730</v>
+      </c>
+      <c r="C5" s="36">
+        <v>8048</v>
+      </c>
+      <c r="D5" s="36">
+        <v>2787</v>
+      </c>
+      <c r="E5" s="36">
+        <v>3198</v>
+      </c>
+      <c r="F5" s="36">
+        <v>53657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="36">
+        <v>39610</v>
+      </c>
+      <c r="C6" s="36">
+        <v>8435</v>
+      </c>
+      <c r="D6" s="36">
+        <v>2818</v>
+      </c>
+      <c r="E6" s="36">
+        <v>3171</v>
+      </c>
+      <c r="F6" s="36">
+        <v>54034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="36">
+        <v>37982</v>
+      </c>
+      <c r="C3" s="36">
+        <v>4428</v>
+      </c>
+      <c r="D3" s="36">
+        <v>3372</v>
+      </c>
+      <c r="E3" s="41">
+        <v>353</v>
+      </c>
+      <c r="F3" s="36">
+        <v>8153</v>
+      </c>
+      <c r="G3" s="36">
+        <v>46135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="36">
+        <v>37724</v>
+      </c>
+      <c r="C4" s="36">
+        <v>4103</v>
+      </c>
+      <c r="D4" s="36">
+        <v>3503</v>
+      </c>
+      <c r="E4" s="41">
+        <v>187</v>
+      </c>
+      <c r="F4" s="36">
+        <v>7793</v>
+      </c>
+      <c r="G4" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="36">
+        <v>38730</v>
+      </c>
+      <c r="C5" s="36">
+        <v>4336</v>
+      </c>
+      <c r="D5" s="36">
+        <v>3712</v>
+      </c>
+      <c r="E5" s="41">
+        <v>253</v>
+      </c>
+      <c r="F5" s="36">
+        <v>8301</v>
+      </c>
+      <c r="G5" s="36">
+        <v>47031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="36">
+        <v>39610</v>
+      </c>
+      <c r="C6" s="36">
+        <v>4576</v>
+      </c>
+      <c r="D6" s="36">
+        <v>3859</v>
+      </c>
+      <c r="E6" s="41">
+        <v>272</v>
+      </c>
+      <c r="F6" s="36">
+        <v>8707</v>
+      </c>
+      <c r="G6" s="36">
+        <v>48317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="48">
+        <v>8283</v>
+      </c>
+      <c r="C3" s="49">
+        <v>414</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="49">
+        <v>3</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="48">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="48">
+        <v>12567</v>
+      </c>
+      <c r="C4" s="49">
+        <v>810</v>
+      </c>
+      <c r="D4" s="49">
+        <v>5</v>
+      </c>
+      <c r="E4" s="49">
+        <v>42</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="48">
+        <v>13424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>1988</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1166</v>
+      </c>
+      <c r="C5" s="52">
+        <v>79</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52">
+        <v>9</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="51">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>1989</v>
+      </c>
+      <c r="B6" s="51">
+        <v>1114</v>
+      </c>
+      <c r="C6" s="52">
+        <v>177</v>
+      </c>
+      <c r="D6" s="52">
+        <v>4</v>
+      </c>
+      <c r="E6" s="52">
+        <v>8</v>
+      </c>
+      <c r="F6" s="52">
+        <v>2</v>
+      </c>
+      <c r="G6" s="51">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>1990</v>
+      </c>
+      <c r="B7" s="51">
+        <v>1051</v>
+      </c>
+      <c r="C7" s="52">
+        <v>88</v>
+      </c>
+      <c r="D7" s="52">
+        <v>8</v>
+      </c>
+      <c r="E7" s="52">
+        <v>22</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="51">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
+        <v>1991</v>
+      </c>
+      <c r="B8" s="51">
+        <v>1029</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="52">
+        <v>28</v>
+      </c>
+      <c r="E8" s="52">
+        <v>168</v>
+      </c>
+      <c r="F8" s="52">
+        <v>8</v>
+      </c>
+      <c r="G8" s="51">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="50">
+        <v>1992</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1003</v>
+      </c>
+      <c r="C9" s="52">
+        <v>72</v>
+      </c>
+      <c r="D9" s="52">
+        <v>30</v>
+      </c>
+      <c r="E9" s="52">
+        <v>199</v>
+      </c>
+      <c r="F9" s="52">
+        <v>8</v>
+      </c>
+      <c r="G9" s="51">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>1993</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1020</v>
+      </c>
+      <c r="C10" s="52">
+        <v>50</v>
+      </c>
+      <c r="D10" s="52">
+        <v>31</v>
+      </c>
+      <c r="E10" s="52">
+        <v>197</v>
+      </c>
+      <c r="F10" s="52">
+        <v>18</v>
+      </c>
+      <c r="G10" s="51">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>1994</v>
+      </c>
+      <c r="B11" s="51">
+        <v>1144</v>
+      </c>
+      <c r="C11" s="52">
+        <v>71</v>
+      </c>
+      <c r="D11" s="52">
+        <v>49</v>
+      </c>
+      <c r="E11" s="52">
+        <v>196</v>
+      </c>
+      <c r="F11" s="52">
+        <v>20</v>
+      </c>
+      <c r="G11" s="51">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>1995</v>
+      </c>
+      <c r="B12" s="51">
+        <v>1464</v>
+      </c>
+      <c r="C12" s="52">
+        <v>132</v>
+      </c>
+      <c r="D12" s="52">
+        <v>36</v>
+      </c>
+      <c r="E12" s="52">
+        <v>244</v>
+      </c>
+      <c r="F12" s="52">
+        <v>26</v>
+      </c>
+      <c r="G12" s="51">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
+        <v>1996</v>
+      </c>
+      <c r="B13" s="51">
+        <v>1724</v>
+      </c>
+      <c r="C13" s="52">
+        <v>65</v>
+      </c>
+      <c r="D13" s="52">
+        <v>42</v>
+      </c>
+      <c r="E13" s="52">
+        <v>287</v>
+      </c>
+      <c r="F13" s="52">
+        <v>43</v>
+      </c>
+      <c r="G13" s="51">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="50">
+        <v>1997</v>
+      </c>
+      <c r="B14" s="51">
+        <v>1798</v>
+      </c>
+      <c r="C14" s="52">
+        <v>105</v>
+      </c>
+      <c r="D14" s="52">
+        <v>29</v>
+      </c>
+      <c r="E14" s="52">
+        <v>354</v>
+      </c>
+      <c r="F14" s="52">
+        <v>43</v>
+      </c>
+      <c r="G14" s="51">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="48">
+        <v>12513</v>
+      </c>
+      <c r="C15" s="49">
+        <v>839</v>
+      </c>
+      <c r="D15" s="49">
+        <v>258</v>
+      </c>
+      <c r="E15" s="48">
+        <v>1684</v>
+      </c>
+      <c r="F15" s="49">
+        <v>168</v>
+      </c>
+      <c r="G15" s="48">
+        <v>15462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="50">
+        <v>1998</v>
+      </c>
+      <c r="B16" s="51">
+        <v>2052</v>
+      </c>
+      <c r="C16" s="52">
+        <v>592</v>
+      </c>
+      <c r="D16" s="52">
+        <v>14</v>
+      </c>
+      <c r="E16" s="52">
+        <v>364</v>
+      </c>
+      <c r="F16" s="52">
+        <v>57</v>
+      </c>
+      <c r="G16" s="51">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="50">
+        <v>1999</v>
+      </c>
+      <c r="B17" s="51">
+        <v>2205</v>
+      </c>
+      <c r="C17" s="51">
+        <v>1093</v>
+      </c>
+      <c r="D17" s="52">
+        <v>15</v>
+      </c>
+      <c r="E17" s="52">
+        <v>393</v>
+      </c>
+      <c r="F17" s="52">
+        <v>78</v>
+      </c>
+      <c r="G17" s="51">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="50">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="51">
+        <v>2332</v>
+      </c>
+      <c r="C18" s="51">
+        <v>1044</v>
+      </c>
+      <c r="D18" s="52">
+        <v>17</v>
+      </c>
+      <c r="E18" s="52">
+        <v>515</v>
+      </c>
+      <c r="F18" s="52">
+        <v>111</v>
+      </c>
+      <c r="G18" s="51">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>2001</v>
+      </c>
+      <c r="B19" s="51">
+        <v>2591</v>
+      </c>
+      <c r="C19" s="51">
+        <v>1936</v>
+      </c>
+      <c r="D19" s="52">
+        <v>5</v>
+      </c>
+      <c r="E19" s="52">
+        <v>526</v>
+      </c>
+      <c r="F19" s="52">
+        <v>116</v>
+      </c>
+      <c r="G19" s="51">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>2002</v>
+      </c>
+      <c r="B20" s="51">
+        <v>2609</v>
+      </c>
+      <c r="C20" s="51">
+        <v>1513</v>
+      </c>
+      <c r="D20" s="52">
+        <v>3</v>
+      </c>
+      <c r="E20" s="52">
+        <v>818</v>
+      </c>
+      <c r="F20" s="52">
+        <v>151</v>
+      </c>
+      <c r="G20" s="51">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
+        <v>2003</v>
+      </c>
+      <c r="B21" s="51">
+        <v>3935</v>
+      </c>
+      <c r="C21" s="52">
+        <v>878</v>
+      </c>
+      <c r="D21" s="52">
+        <v>1</v>
+      </c>
+      <c r="E21" s="52">
+        <v>668</v>
+      </c>
+      <c r="F21" s="52">
+        <v>150</v>
+      </c>
+      <c r="G21" s="51">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="50">
+        <v>2004</v>
+      </c>
+      <c r="B22" s="51">
+        <v>4133</v>
+      </c>
+      <c r="C22" s="51">
+        <v>1326</v>
+      </c>
+      <c r="D22" s="52">
+        <v>3</v>
+      </c>
+      <c r="E22" s="52">
+        <v>800</v>
+      </c>
+      <c r="F22" s="52">
+        <v>203</v>
+      </c>
+      <c r="G22" s="51">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="50">
+        <v>2005</v>
+      </c>
+      <c r="B23" s="51">
+        <v>3089</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1231</v>
+      </c>
+      <c r="D23" s="52">
+        <v>1</v>
+      </c>
+      <c r="E23" s="52">
+        <v>877</v>
+      </c>
+      <c r="F23" s="52">
+        <v>207</v>
+      </c>
+      <c r="G23" s="51">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="50">
+        <v>2006</v>
+      </c>
+      <c r="B24" s="51">
+        <v>3276</v>
+      </c>
+      <c r="C24" s="52">
+        <v>105</v>
+      </c>
+      <c r="D24" s="52">
+        <v>1</v>
+      </c>
+      <c r="E24" s="52">
+        <v>918</v>
+      </c>
+      <c r="F24" s="52">
+        <v>226</v>
+      </c>
+      <c r="G24" s="51">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="50">
+        <v>2007</v>
+      </c>
+      <c r="B25" s="51">
+        <v>3420</v>
+      </c>
+      <c r="C25" s="51">
+        <v>1806</v>
+      </c>
+      <c r="D25" s="52">
+        <v>8</v>
+      </c>
+      <c r="E25" s="52">
+        <v>962</v>
+      </c>
+      <c r="F25" s="52">
+        <v>274</v>
+      </c>
+      <c r="G25" s="51">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="48">
+        <v>29642</v>
+      </c>
+      <c r="C26" s="48">
+        <v>11524</v>
+      </c>
+      <c r="D26" s="49">
+        <v>68</v>
+      </c>
+      <c r="E26" s="48">
+        <v>6841</v>
+      </c>
+      <c r="F26" s="48">
+        <v>1573</v>
+      </c>
+      <c r="G26" s="48">
+        <v>49648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="50">
+        <v>2008</v>
+      </c>
+      <c r="B27" s="51">
+        <v>3513</v>
+      </c>
+      <c r="C27" s="52">
+        <v>537</v>
+      </c>
+      <c r="D27" s="52">
+        <v>5</v>
+      </c>
+      <c r="E27" s="51">
+        <v>1022</v>
+      </c>
+      <c r="F27" s="52">
+        <v>318</v>
+      </c>
+      <c r="G27" s="51">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="50">
+        <v>2009</v>
+      </c>
+      <c r="B28" s="51">
+        <v>4319</v>
+      </c>
+      <c r="C28" s="52">
+        <v>383</v>
+      </c>
+      <c r="D28" s="52">
+        <v>9</v>
+      </c>
+      <c r="E28" s="52">
+        <v>975</v>
+      </c>
+      <c r="F28" s="52">
+        <v>313</v>
+      </c>
+      <c r="G28" s="51">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="50">
+        <v>2010</v>
+      </c>
+      <c r="B29" s="51">
+        <v>4086</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="52">
+        <v>11</v>
+      </c>
+      <c r="E29" s="52">
+        <v>874</v>
+      </c>
+      <c r="F29" s="52">
+        <v>258</v>
+      </c>
+      <c r="G29" s="51">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="50">
+        <v>2011</v>
+      </c>
+      <c r="B30" s="51">
+        <v>4319</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="52">
+        <v>2</v>
+      </c>
+      <c r="E30" s="52">
+        <v>859</v>
+      </c>
+      <c r="F30" s="52">
+        <v>268</v>
+      </c>
+      <c r="G30" s="51">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="50">
+        <v>2012</v>
+      </c>
+      <c r="B31" s="51">
+        <v>3629</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="52">
+        <v>1</v>
+      </c>
+      <c r="E31" s="51">
+        <v>1212</v>
+      </c>
+      <c r="F31" s="52">
+        <v>417</v>
+      </c>
+      <c r="G31" s="51">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="50">
+        <v>2013</v>
+      </c>
+      <c r="B32" s="51">
+        <v>3547</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="52">
+        <v>3</v>
+      </c>
+      <c r="E32" s="51">
+        <v>1063</v>
+      </c>
+      <c r="F32" s="52">
+        <v>383</v>
+      </c>
+      <c r="G32" s="51">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="50">
+        <v>2014</v>
+      </c>
+      <c r="B33" s="51">
+        <v>4022</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="52">
+        <v>2</v>
+      </c>
+      <c r="E33" s="51">
+        <v>1228</v>
+      </c>
+      <c r="F33" s="52">
+        <v>411</v>
+      </c>
+      <c r="G33" s="51">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="50">
+        <v>2015</v>
+      </c>
+      <c r="B34" s="51">
+        <v>4554</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="52">
+        <v>2</v>
+      </c>
+      <c r="E34" s="51">
+        <v>1327</v>
+      </c>
+      <c r="F34" s="52">
+        <v>536</v>
+      </c>
+      <c r="G34" s="51">
+        <v>6419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="50">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="51">
+        <v>4906</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="51">
+        <v>1526</v>
+      </c>
+      <c r="F35" s="52">
+        <v>582</v>
+      </c>
+      <c r="G35" s="51">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="50">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="51">
+        <v>5048</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="51">
+        <v>1551</v>
+      </c>
+      <c r="F36" s="52">
+        <v>571</v>
+      </c>
+      <c r="G36" s="51">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="48">
+        <v>41943</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="49">
+        <v>35</v>
+      </c>
+      <c r="E37" s="48">
+        <v>11637</v>
+      </c>
+      <c r="F37" s="48">
+        <v>4057</v>
+      </c>
+      <c r="G37" s="48">
+        <v>58592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="50">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="51">
+        <v>5246</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="51">
+        <v>1549</v>
+      </c>
+      <c r="F38" s="52">
+        <v>646</v>
+      </c>
+      <c r="G38" s="51">
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50">
+        <v>2019</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="40" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="54">
+        <v>3950579.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="54">
+        <v>475804.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="54">
+        <v>115121.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="56">
+        <v>590925.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="56">
+        <v>3579604.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="54">
+        <v>1818854.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="54">
+        <v>1760750.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="54">
+        <v>370974.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="36">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="36">
+        <v>10409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="36">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="36">
+        <v>5120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="36">
+        <v>39880000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="36">
+        <v>23538000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="36">
+        <v>5284200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="54">
+        <v>89538.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="54">
+        <v>53666.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="54">
+        <v>35871.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="41">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2193,6 +4703,663 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
@@ -2271,7 +5438,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
@@ -2279,13 +5446,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
@@ -2293,13 +5460,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -2430,125 +5597,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/dados_gerais/dados_gerais_tabelas.xlsx
+++ b/dados_gerais/dados_gerais_tabelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8592" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8592" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="componentes_inst" sheetId="1" r:id="rId1"/>
@@ -3940,7 +3940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -7265,8 +7265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7314,6 +7314,9 @@
     <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>194</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="61"/>

--- a/dados_gerais/dados_gerais_tabelas.xlsx
+++ b/dados_gerais/dados_gerais_tabelas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAI-DPO\GITHUB\ANUARIO\anuario2020\dados_gerais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_gerais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8592" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8595" firstSheet="17" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="componentes_inst" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <sheet name="hvetao" sheetId="24" r:id="rId23"/>
     <sheet name="hvetinho" sheetId="23" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,9 +576,6 @@
     <t>Área Construída</t>
   </si>
   <si>
-    <t>Mês</t>
-  </si>
-  <si>
     <t>Cirurgias</t>
   </si>
   <si>
@@ -767,12 +764,15 @@
   </si>
   <si>
     <t>2009 A 2019</t>
+  </si>
+  <si>
+    <t>Unidade Mês</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
@@ -1184,7 +1184,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1222,7 +1222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1294,7 +1294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1450,14 +1450,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="72" t="s">
         <v>0</v>
@@ -1595,13 +1595,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1829,9 +1829,9 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1914,9 +1914,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1964,9 +1964,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2009,7 +2009,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
   </cols>
@@ -2024,7 +2024,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2101,15 +2101,15 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="48.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="23.25">
       <c r="A1" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="8">
         <v>2009</v>
@@ -2145,7 +2145,7 @@
         <v>2019</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2182,7 +2182,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="25" t="s">
         <v>99</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="Q5" s="58"/>
       <c r="R5" s="58"/>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
       <c r="A6" s="25" t="s">
         <v>100</v>
       </c>
@@ -2362,9 +2362,9 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>67</v>
@@ -2592,7 +2592,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
       <c r="A13" s="25" t="s">
         <v>103</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
     </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
       <c r="A14" s="26" t="s">
         <v>89</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
     </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
       <c r="A15" s="26" t="s">
         <v>90</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="Q15" s="60"/>
       <c r="R15" s="60"/>
     </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
       <c r="A16" s="25" t="s">
         <v>95</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1">
       <c r="A17" s="25" t="s">
         <v>24</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1">
       <c r="A18" s="25" t="s">
         <v>25</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1">
       <c r="A19" s="26" t="s">
         <v>105</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="Q19" s="60"/>
       <c r="R19" s="60"/>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1">
       <c r="A20" s="25" t="s">
         <v>24</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1">
       <c r="A21" s="25" t="s">
         <v>25</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="Q21" s="60"/>
       <c r="R21" s="60"/>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1">
       <c r="A22" s="25" t="s">
         <v>91</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1">
       <c r="A23" s="26" t="s">
         <v>92</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1">
       <c r="A24" s="25" t="s">
         <v>24</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="Q24" s="57"/>
       <c r="R24" s="60"/>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1">
+    <row r="25" spans="1:18" ht="15.75" thickBot="1">
       <c r="A25" s="25" t="s">
         <v>25</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="Q25" s="57"/>
       <c r="R25" s="60"/>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1">
+    <row r="26" spans="1:18" ht="15.75" thickBot="1">
       <c r="A26" s="26" t="s">
         <v>64</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="Q26" s="58"/>
       <c r="R26" s="60"/>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1">
       <c r="A27" s="28" t="s">
         <v>65</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="Q27" s="57"/>
       <c r="R27" s="60"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1">
+    <row r="28" spans="1:18" ht="15.75" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>66</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="Q28" s="57"/>
       <c r="R28" s="60"/>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1">
+    <row r="29" spans="1:18" ht="15.75" thickBot="1">
       <c r="A29" s="25" t="s">
         <v>69</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="Q29" s="63"/>
       <c r="R29" s="57"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1">
       <c r="A30" s="28" t="s">
         <v>70</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="Q30" s="64"/>
       <c r="R30" s="57"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1">
       <c r="A31" s="25" t="s">
         <v>71</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="Q31" s="58"/>
       <c r="R31" s="58"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1">
       <c r="A32" s="25" t="s">
         <v>72</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="Q32" s="60"/>
       <c r="R32" s="60"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1">
+    <row r="33" spans="1:18" ht="15.75" thickBot="1">
       <c r="A33" s="28" t="s">
         <v>73</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="Q33" s="60"/>
       <c r="R33" s="60"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1">
       <c r="A34" s="25" t="s">
         <v>74</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="Q34" s="60"/>
       <c r="R34" s="60"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1">
+    <row r="35" spans="1:18" ht="15.75" thickBot="1">
       <c r="A35" s="25" t="s">
         <v>75</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="Q35" s="60"/>
       <c r="R35" s="60"/>
     </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1">
+    <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>76</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="Q36" s="60"/>
       <c r="R36" s="60"/>
     </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1">
       <c r="A37" s="25" t="s">
         <v>77</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="Q37" s="60"/>
       <c r="R37" s="60"/>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1">
+    <row r="38" spans="1:18" ht="15.75" thickBot="1">
       <c r="A38" s="25" t="s">
         <v>78</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="Q38" s="60"/>
       <c r="R38" s="60"/>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1">
+    <row r="39" spans="1:18" ht="15.75" thickBot="1">
       <c r="A39" s="22" t="s">
         <v>79</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="Q39" s="60"/>
       <c r="R39" s="60"/>
     </row>
-    <row r="40" spans="1:18" ht="15" thickBot="1">
+    <row r="40" spans="1:18" ht="15.75" thickBot="1">
       <c r="A40" s="26" t="s">
         <v>80</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="Q40" s="60"/>
       <c r="R40" s="60"/>
     </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1">
+    <row r="41" spans="1:18" ht="15.75" thickBot="1">
       <c r="A41" s="22" t="s">
         <v>81</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="Q41" s="60"/>
       <c r="R41" s="60"/>
     </row>
-    <row r="42" spans="1:18" ht="15" thickBot="1">
+    <row r="42" spans="1:18" ht="15.75" thickBot="1">
       <c r="A42" s="25" t="s">
         <v>82</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="Q42" s="60"/>
       <c r="R42" s="60"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1">
+    <row r="43" spans="1:18" ht="15.75" thickBot="1">
       <c r="A43" s="25" t="s">
         <v>83</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="Q43" s="60"/>
       <c r="R43" s="60"/>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1">
+    <row r="44" spans="1:18" ht="15.75" thickBot="1">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -3816,7 +3816,7 @@
       <c r="Q44" s="60"/>
       <c r="R44" s="60"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1">
+    <row r="45" spans="1:18" ht="15.75" thickBot="1">
       <c r="A45" s="27"/>
       <c r="N45" s="54"/>
       <c r="O45" s="59"/>
@@ -3824,7 +3824,7 @@
       <c r="Q45" s="60"/>
       <c r="R45" s="60"/>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1">
+    <row r="46" spans="1:18" ht="15.75" thickBot="1">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -3844,89 +3844,89 @@
       <c r="Q46" s="60"/>
       <c r="R46" s="60"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1">
+    <row r="47" spans="1:18" ht="15.75" thickBot="1">
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="60"/>
       <c r="R47" s="60"/>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1">
+    <row r="48" spans="1:18" ht="15.75" thickBot="1">
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
       <c r="Q48" s="60"/>
       <c r="R48" s="60"/>
     </row>
-    <row r="49" spans="15:18" ht="15" thickBot="1">
+    <row r="49" spans="15:18" ht="15.75" thickBot="1">
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
       <c r="Q49" s="60"/>
       <c r="R49" s="60"/>
     </row>
-    <row r="50" spans="15:18" ht="15" thickBot="1">
+    <row r="50" spans="15:18" ht="15.75" thickBot="1">
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
       <c r="Q50" s="60"/>
       <c r="R50" s="60"/>
     </row>
-    <row r="51" spans="15:18" ht="15" thickBot="1">
+    <row r="51" spans="15:18" ht="15.75" thickBot="1">
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
       <c r="Q51" s="60"/>
       <c r="R51" s="60"/>
     </row>
-    <row r="52" spans="15:18" ht="15" thickBot="1">
+    <row r="52" spans="15:18" ht="15.75" thickBot="1">
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
       <c r="Q52" s="60"/>
       <c r="R52" s="60"/>
     </row>
-    <row r="53" spans="15:18" ht="15" thickBot="1">
+    <row r="53" spans="15:18" ht="15.75" thickBot="1">
       <c r="O53" s="59"/>
       <c r="P53" s="59"/>
       <c r="Q53" s="60"/>
       <c r="R53" s="60"/>
     </row>
-    <row r="54" spans="15:18" ht="15" thickBot="1">
+    <row r="54" spans="15:18" ht="15.75" thickBot="1">
       <c r="O54" s="59"/>
       <c r="P54" s="59"/>
       <c r="Q54" s="60"/>
       <c r="R54" s="60"/>
     </row>
-    <row r="55" spans="15:18" ht="15" thickBot="1">
+    <row r="55" spans="15:18" ht="15.75" thickBot="1">
       <c r="O55" s="59"/>
       <c r="P55" s="59"/>
       <c r="Q55" s="60"/>
       <c r="R55" s="60"/>
     </row>
-    <row r="56" spans="15:18" ht="15" thickBot="1">
+    <row r="56" spans="15:18" ht="15.75" thickBot="1">
       <c r="O56" s="59"/>
       <c r="P56" s="59"/>
       <c r="Q56" s="60"/>
       <c r="R56" s="60"/>
     </row>
-    <row r="57" spans="15:18" ht="15" thickBot="1">
+    <row r="57" spans="15:18" ht="15.75" thickBot="1">
       <c r="O57" s="59"/>
       <c r="P57" s="59"/>
       <c r="Q57" s="60"/>
       <c r="R57" s="60"/>
     </row>
-    <row r="58" spans="15:18" ht="15" thickBot="1">
+    <row r="58" spans="15:18" ht="15.75" thickBot="1">
       <c r="O58" s="59"/>
       <c r="P58" s="59"/>
       <c r="Q58" s="60"/>
       <c r="R58" s="60"/>
     </row>
-    <row r="59" spans="15:18" ht="15" thickBot="1">
+    <row r="59" spans="15:18" ht="15.75" thickBot="1">
       <c r="P59" s="59"/>
       <c r="Q59" s="60"/>
       <c r="R59" s="60"/>
     </row>
-    <row r="60" spans="15:18" ht="15" thickBot="1">
+    <row r="60" spans="15:18" ht="15.75" thickBot="1">
       <c r="P60" s="59"/>
       <c r="Q60" s="60"/>
       <c r="R60" s="60"/>
     </row>
-    <row r="61" spans="15:18" ht="15" thickBot="1">
+    <row r="61" spans="15:18" ht="15.75" thickBot="1">
       <c r="P61" s="59"/>
       <c r="Q61" s="60"/>
       <c r="R61" s="60"/>
@@ -3944,17 +3944,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="69" customFormat="1" ht="16.2">
+    <row r="1" spans="1:6" s="69" customFormat="1">
       <c r="A1" s="38" t="s">
         <v>106</v>
       </c>
@@ -4088,15 +4088,15 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="69" customFormat="1">
@@ -4250,16 +4250,16 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="34"/>
-    <col min="7" max="7" width="6.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="34"/>
+    <col min="1" max="1" width="8.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="34"/>
+    <col min="7" max="7" width="6.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="69" customFormat="1">
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.6">
+    <row r="2" spans="1:7" ht="23.25">
       <c r="A2" s="36" t="s">
         <v>112</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6">
+    <row r="3" spans="1:7" ht="23.25">
       <c r="A3" s="36" t="s">
         <v>113</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.6">
+    <row r="14" spans="1:7" ht="23.25">
       <c r="A14" s="36" t="s">
         <v>114</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>6470</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21.6">
+    <row r="25" spans="1:7" ht="23.25">
       <c r="A25" s="36" t="s">
         <v>115</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>7170</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="21.6">
+    <row r="36" spans="1:7" ht="23.25">
       <c r="A36" s="36" t="s">
         <v>116</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>7417</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="21.6">
+    <row r="39" spans="1:7" ht="23.25">
       <c r="A39" s="36" t="s">
         <v>120</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>14858</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="21.6">
+    <row r="40" spans="1:7" ht="23.25">
       <c r="A40" s="36" t="s">
         <v>117</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>115319</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="14">
         <f>D39+D36+D25+D14+D3+D2</f>
@@ -5206,10 +5206,10 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5299,11 +5299,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5322,7 +5322,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4">
         <v>1988</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="4">
         <v>2112</v>
@@ -5396,12 +5396,12 @@
       <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5549,9 +5549,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.33203125" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="26.33203125" style="10"/>
+    <col min="1" max="2" width="26.28515625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5653,10 +5653,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5716,40 +5716,44 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="69" customFormat="1">
       <c r="A1" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>143</v>
-      </c>
       <c r="F1" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="47">
         <v>33</v>
@@ -5769,7 +5773,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="47">
         <v>15</v>
@@ -5789,7 +5793,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="47">
         <v>40</v>
@@ -5809,7 +5813,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="47">
         <v>23</v>
@@ -5829,7 +5833,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="47">
         <v>15</v>
@@ -5849,7 +5853,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="47">
         <v>15</v>
@@ -5869,7 +5873,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="47">
         <v>11</v>
@@ -5889,7 +5893,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="47">
         <v>24</v>
@@ -5909,7 +5913,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="47">
         <v>14</v>
@@ -5929,7 +5933,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="47">
         <v>22</v>
@@ -5947,9 +5951,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.4">
+    <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="47">
         <v>16</v>
@@ -5967,9 +5971,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.4">
+    <row r="13" spans="1:6">
       <c r="A13" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="47">
         <v>14</v>
@@ -5987,45 +5991,53 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="49">
+        <v>15.5</v>
+      </c>
+      <c r="C14" s="49">
+        <v>12</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="49">
+        <v>11.5</v>
+      </c>
+      <c r="F14" s="49">
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B15" s="49">
         <v>242</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C15" s="49">
         <v>138</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D15" s="49">
         <v>7</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E15" s="49">
         <v>160</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F15" s="49">
         <v>4925</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.4">
-      <c r="A15" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="49">
-        <v>15.5</v>
-      </c>
-      <c r="C15" s="49">
-        <v>12</v>
-      </c>
-      <c r="D15" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="49">
-        <v>11.5</v>
-      </c>
-      <c r="F15" s="49">
-        <v>390.5</v>
-      </c>
+    <row r="16" spans="1:6">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6037,76 +6049,76 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="10"/>
-    <col min="2" max="6" width="10.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="13.5546875" style="10"/>
+    <col min="1" max="1" width="13.5703125" style="10"/>
+    <col min="2" max="6" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.5703125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.4">
+    <row r="1" spans="1:17" ht="25.5">
       <c r="A1" s="48" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="G1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="J1" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="K1" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="L1" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="M1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>145</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="50">
         <v>73</v>
@@ -6159,7 +6171,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="50">
         <v>90</v>
@@ -6212,7 +6224,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="50">
         <v>53</v>
@@ -6265,7 +6277,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="50">
         <v>65</v>
@@ -6318,7 +6330,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="50">
         <v>69</v>
@@ -6371,7 +6383,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="50">
         <v>78</v>
@@ -6424,7 +6436,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="50">
         <v>82</v>
@@ -6477,7 +6489,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="50">
         <v>64</v>
@@ -6530,7 +6542,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="50">
         <v>50</v>
@@ -6583,7 +6595,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="50">
         <v>71</v>
@@ -6636,7 +6648,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="50">
         <v>56</v>
@@ -6689,7 +6701,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="50">
         <v>45</v>
@@ -6740,110 +6752,110 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" ht="25.5">
       <c r="A14" s="48" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B14" s="44">
-        <v>796</v>
+        <v>66.3</v>
       </c>
       <c r="C14" s="44">
-        <v>362</v>
+        <v>30.2</v>
       </c>
       <c r="D14" s="44">
-        <v>313</v>
+        <v>26.1</v>
       </c>
       <c r="E14" s="44">
-        <v>224</v>
+        <v>18.7</v>
       </c>
       <c r="F14" s="44">
-        <v>205</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G14" s="44">
-        <v>1900</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="H14" s="44">
-        <v>1750</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="I14" s="44">
-        <v>854</v>
+        <v>71.2</v>
       </c>
       <c r="J14" s="44">
-        <v>1256</v>
+        <v>104.7</v>
       </c>
       <c r="K14" s="44">
-        <v>410</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="L14" s="44">
-        <v>208</v>
+        <v>17.3</v>
       </c>
       <c r="M14" s="44">
-        <v>4478</v>
+        <v>373.2</v>
       </c>
       <c r="N14" s="44">
-        <v>465</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="O14" s="44">
-        <v>278</v>
+        <v>23.2</v>
       </c>
       <c r="P14" s="44">
-        <v>81</v>
+        <v>16.2</v>
       </c>
       <c r="Q14" s="44">
-        <v>874</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="48" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="B15" s="44">
-        <v>66.3</v>
+        <v>796</v>
       </c>
       <c r="C15" s="44">
-        <v>30.2</v>
+        <v>362</v>
       </c>
       <c r="D15" s="44">
-        <v>26.1</v>
+        <v>313</v>
       </c>
       <c r="E15" s="44">
-        <v>18.7</v>
+        <v>224</v>
       </c>
       <c r="F15" s="44">
-        <v>17.100000000000001</v>
+        <v>205</v>
       </c>
       <c r="G15" s="44">
-        <v>158.30000000000001</v>
+        <v>1900</v>
       </c>
       <c r="H15" s="44">
-        <v>145.80000000000001</v>
+        <v>1750</v>
       </c>
       <c r="I15" s="44">
-        <v>71.2</v>
+        <v>854</v>
       </c>
       <c r="J15" s="44">
-        <v>104.7</v>
+        <v>1256</v>
       </c>
       <c r="K15" s="44">
-        <v>34.200000000000003</v>
+        <v>410</v>
       </c>
       <c r="L15" s="44">
-        <v>17.3</v>
+        <v>208</v>
       </c>
       <c r="M15" s="44">
-        <v>373.2</v>
+        <v>4478</v>
       </c>
       <c r="N15" s="44">
-        <v>38.799999999999997</v>
+        <v>465</v>
       </c>
       <c r="O15" s="44">
-        <v>23.2</v>
+        <v>278</v>
       </c>
       <c r="P15" s="44">
-        <v>16.2</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="44">
-        <v>72.8</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -6859,9 +6871,9 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6881,7 +6893,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4">
         <v>12268</v>
@@ -6895,7 +6907,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="4">
         <v>25703</v>
@@ -6948,12 +6960,12 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6972,7 +6984,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="51">
         <v>5.8087121212121211</v>
@@ -6986,7 +6998,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="51">
         <v>24.202448210922785</v>
@@ -7030,29 +7042,29 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" style="4"/>
+    <col min="1" max="1" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="73">
         <v>1127</v>
@@ -7066,7 +7078,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="4">
         <v>492</v>
@@ -7187,22 +7199,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -7210,7 +7222,7 @@
     </row>
     <row r="3" spans="1:2" s="34" customFormat="1">
       <c r="A3" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="34">
         <v>134</v>
@@ -7218,7 +7230,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -7226,7 +7238,7 @@
     </row>
     <row r="5" spans="1:2" s="34" customFormat="1">
       <c r="A5" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="34">
         <v>11</v>
@@ -7234,7 +7246,7 @@
     </row>
     <row r="6" spans="1:2" s="34" customFormat="1">
       <c r="A6" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="34">
         <v>93</v>
@@ -7250,7 +7262,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7265,28 +7277,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.109375" style="57"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
         <v>178</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="34" t="s">
         <v>179</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -7294,7 +7306,7 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -7311,9 +7323,9 @@
       <c r="G3" s="61"/>
       <c r="H3" s="61"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -7322,7 +7334,7 @@
       <c r="G4" s="61"/>
       <c r="H4" s="61"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -7339,7 +7351,7 @@
       <c r="G5" s="61"/>
       <c r="H5" s="61"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -7356,112 +7368,112 @@
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="F7" s="59"/>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="F8" s="59"/>
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
       <c r="F9" s="59"/>
       <c r="G9" s="61"/>
       <c r="H9" s="61"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="F10" s="59"/>
       <c r="G10" s="61"/>
       <c r="H10" s="61"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="F11" s="59"/>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="F12" s="59"/>
       <c r="G12" s="61"/>
       <c r="H12" s="61"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="F13" s="59"/>
       <c r="G13" s="61"/>
       <c r="H13" s="61"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="F14" s="59"/>
       <c r="G14" s="61"/>
       <c r="H14" s="61"/>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
       <c r="F15" s="59"/>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
       <c r="F16" s="59"/>
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
     </row>
-    <row r="17" spans="6:8" ht="15" thickBot="1">
+    <row r="17" spans="6:8" ht="15.75" thickBot="1">
       <c r="F17" s="59"/>
       <c r="G17" s="61"/>
       <c r="H17" s="61"/>
     </row>
-    <row r="18" spans="6:8" ht="15" thickBot="1">
+    <row r="18" spans="6:8" ht="15.75" thickBot="1">
       <c r="F18" s="59"/>
       <c r="G18" s="61"/>
       <c r="H18" s="61"/>
     </row>
-    <row r="19" spans="6:8" ht="15" thickBot="1">
+    <row r="19" spans="6:8" ht="15.75" thickBot="1">
       <c r="F19" s="59"/>
       <c r="G19" s="61"/>
       <c r="H19" s="61"/>
     </row>
-    <row r="20" spans="6:8" ht="15" thickBot="1">
+    <row r="20" spans="6:8" ht="15.75" thickBot="1">
       <c r="F20" s="59"/>
       <c r="G20" s="61"/>
       <c r="H20" s="61"/>
     </row>
-    <row r="21" spans="6:8" ht="15" thickBot="1">
+    <row r="21" spans="6:8" ht="15.75" thickBot="1">
       <c r="F21" s="59"/>
       <c r="G21" s="61"/>
       <c r="H21" s="61"/>
     </row>
-    <row r="22" spans="6:8" ht="15" thickBot="1">
+    <row r="22" spans="6:8" ht="15.75" thickBot="1">
       <c r="F22" s="59"/>
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="6:8" ht="15" thickBot="1">
+    <row r="23" spans="6:8" ht="15.75" thickBot="1">
       <c r="F23" s="59"/>
       <c r="G23" s="61"/>
       <c r="H23" s="61"/>
     </row>
-    <row r="24" spans="6:8" ht="15" thickBot="1">
+    <row r="24" spans="6:8" ht="15.75" thickBot="1">
       <c r="F24" s="59"/>
       <c r="G24" s="61"/>
       <c r="H24" s="61"/>
     </row>
-    <row r="25" spans="6:8" ht="15" thickBot="1">
+    <row r="25" spans="6:8" ht="15.75" thickBot="1">
       <c r="F25" s="59"/>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
     </row>
-    <row r="26" spans="6:8" ht="15" thickBot="1">
+    <row r="26" spans="6:8" ht="15.75" thickBot="1">
       <c r="F26" s="59"/>
       <c r="G26" s="61"/>
       <c r="H26" s="61"/>
     </row>
-    <row r="27" spans="6:8" ht="15" thickBot="1">
+    <row r="27" spans="6:8" ht="15.75" thickBot="1">
       <c r="F27" s="59"/>
       <c r="G27" s="61"/>
       <c r="H27" s="61"/>
     </row>
-    <row r="28" spans="6:8" ht="15" thickBot="1">
+    <row r="28" spans="6:8" ht="15.75" thickBot="1">
       <c r="F28" s="59"/>
       <c r="G28" s="61"/>
       <c r="H28" s="61"/>
@@ -7480,25 +7492,25 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="34"/>
+    <col min="1" max="1" width="22.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>189</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>0</v>
@@ -7608,10 +7620,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="70.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7621,7 +7633,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="19">
         <v>1323</v>

--- a/dados_gerais/dados_gerais_tabelas.xlsx
+++ b/dados_gerais/dados_gerais_tabelas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_gerais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\Anuário\2020\Anuário 2020\Anuário 2020\anuario2020\dados_gerais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8595" firstSheet="17" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="componentes_inst" sheetId="1" r:id="rId1"/>
@@ -5295,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5718,7 +5718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
